--- a/experiments/pg/easy_simulation/traj_10_batch_100_max_rew_mlp_2x64_step_1e_1/log_best_traj.xlsx
+++ b/experiments/pg/easy_simulation/traj_10_batch_100_max_rew_mlp_2x64_step_1e_1/log_best_traj.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1371"/>
+  <dimension ref="A1:K1421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61056,6 +61056,2216 @@
         </is>
       </c>
     </row>
+    <row r="1372">
+      <c r="A1372" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D1372" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1372" t="n">
+        <v>15.91608409939166</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1372" t="inlineStr">
+        <is>
+          <t>[1.0, 1.8276316973786813e-35, 2.8446358825793787e-43]</t>
+        </is>
+      </c>
+      <c r="K1372" t="inlineStr">
+        <is>
+          <t>[1.0, 2.9559833313735906e-12]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>[1 2 2]</t>
+        </is>
+      </c>
+      <c r="D1373" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1373" t="n">
+        <v>16.82549471046794</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1373" t="inlineStr">
+        <is>
+          <t>[1.0, 1.1530672351622712e-30, 4.7770974616139445e-34]</t>
+        </is>
+      </c>
+      <c r="K1373" t="inlineStr">
+        <is>
+          <t>[1.0, 2.005638710667057e-12]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>[0 2 2]</t>
+        </is>
+      </c>
+      <c r="D1374" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1374" t="n">
+        <v>24.39003577307217</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1374" t="inlineStr">
+        <is>
+          <t>[6.539275432260183e-08, 3.4673269810880925e-10, 0.9999998807907104]</t>
+        </is>
+      </c>
+      <c r="K1374" t="inlineStr">
+        <is>
+          <t>[1.0, 1.4454093304194782e-12]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>[0 2 1]</t>
+        </is>
+      </c>
+      <c r="D1375" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1375" t="n">
+        <v>24.4896820348891</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1375" t="inlineStr">
+        <is>
+          <t>[4.647605261496567e-19, 5.278386777142485e-14, 1.0]</t>
+        </is>
+      </c>
+      <c r="K1375" t="inlineStr">
+        <is>
+          <t>[1.0, 7.921413091444007e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>[0 2 0]</t>
+        </is>
+      </c>
+      <c r="D1376" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1376" t="n">
+        <v>21.24408406272255</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1376" t="inlineStr">
+        <is>
+          <t>[4.221796777185877e-32, 8.827655828547165e-10, 1.0]</t>
+        </is>
+      </c>
+      <c r="K1376" t="inlineStr">
+        <is>
+          <t>[1.0, 4.832077121243172e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1377" t="inlineStr">
+        <is>
+          <t>[ 0  2 -1]</t>
+        </is>
+      </c>
+      <c r="D1377" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1377" t="n">
+        <v>23.98568537492406</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1377" t="inlineStr">
+        <is>
+          <t>[4.307980165897328e-36, 1.0, 1.850110559545315e-12]</t>
+        </is>
+      </c>
+      <c r="K1377" t="inlineStr">
+        <is>
+          <t>[1.0, 3.4046189804036453e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1378" t="inlineStr">
+        <is>
+          <t>[ 0  1 -1]</t>
+        </is>
+      </c>
+      <c r="D1378" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1378" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1378" t="inlineStr">
+        <is>
+          <t>[5.122178002261772e-29, 1.0, 2.6007109877115853e-13]</t>
+        </is>
+      </c>
+      <c r="K1378" t="inlineStr">
+        <is>
+          <t>[1.0, 2.263013046269538e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1379" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D1379" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1379" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1379" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1379" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1379" t="inlineStr">
+        <is>
+          <t>[6.452292914454028e-18, 1.0, 7.226933352970366e-13]</t>
+        </is>
+      </c>
+      <c r="K1379" t="inlineStr">
+        <is>
+          <t>[1.0, 1.681401464457069e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t>[ 0 -1 -1]</t>
+        </is>
+      </c>
+      <c r="D1380" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1380" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1380" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1380" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1380" t="inlineStr">
+        <is>
+          <t>[4.431130662396754e-08, 1.0, 5.990312412773591e-12]</t>
+        </is>
+      </c>
+      <c r="K1380" t="inlineStr">
+        <is>
+          <t>[1.0, 1.4279235346220664e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1381" t="inlineStr">
+        <is>
+          <t>[ 0 -2 -1]</t>
+        </is>
+      </c>
+      <c r="D1381" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1381" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1381" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1381" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1381" t="inlineStr">
+        <is>
+          <t>[0.5913773775100708, 0.4086226522922516, 2.3509342042538073e-11]</t>
+        </is>
+      </c>
+      <c r="K1381" t="inlineStr">
+        <is>
+          <t>[1.0, 1.4147076522405544e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1382" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D1382" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1382" t="n">
+        <v>15.91608409939166</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1382" t="inlineStr">
+        <is>
+          <t>[1.0, 1.8288730549994044e-35, 2.8446358825793787e-43]</t>
+        </is>
+      </c>
+      <c r="K1382" t="inlineStr">
+        <is>
+          <t>[1.0, 2.9559833313735906e-12]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1383" t="inlineStr">
+        <is>
+          <t>[1 2 2]</t>
+        </is>
+      </c>
+      <c r="D1383" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1383" t="n">
+        <v>16.82549471046794</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1383" t="inlineStr">
+        <is>
+          <t>[1.0, 1.1543258604735836e-30, 4.782312340263276e-34]</t>
+        </is>
+      </c>
+      <c r="K1383" t="inlineStr">
+        <is>
+          <t>[1.0, 2.005638710667057e-12]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1384" t="inlineStr">
+        <is>
+          <t>[0 2 2]</t>
+        </is>
+      </c>
+      <c r="D1384" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1384" t="n">
+        <v>24.39003577307217</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1384" t="inlineStr">
+        <is>
+          <t>[6.523976736616532e-08, 3.466262554763233e-10, 0.9999998807907104]</t>
+        </is>
+      </c>
+      <c r="K1384" t="inlineStr">
+        <is>
+          <t>[1.0, 1.445406619914047e-12]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1385" t="inlineStr">
+        <is>
+          <t>[0 2 1]</t>
+        </is>
+      </c>
+      <c r="D1385" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1385" t="n">
+        <v>24.4896820348891</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1385" t="inlineStr">
+        <is>
+          <t>[4.635989060756908e-19, 5.277440471933813e-14, 1.0]</t>
+        </is>
+      </c>
+      <c r="K1385" t="inlineStr">
+        <is>
+          <t>[1.0, 7.921413091444007e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1386" t="inlineStr">
+        <is>
+          <t>[0 2 0]</t>
+        </is>
+      </c>
+      <c r="D1386" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1386" t="n">
+        <v>21.24408406272255</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1386" t="inlineStr">
+        <is>
+          <t>[4.2134307838910745e-32, 8.826814279494499e-10, 1.0]</t>
+        </is>
+      </c>
+      <c r="K1386" t="inlineStr">
+        <is>
+          <t>[1.0, 4.832077121243172e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1387" t="inlineStr">
+        <is>
+          <t>[ 0  2 -1]</t>
+        </is>
+      </c>
+      <c r="D1387" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1387" t="n">
+        <v>23.98568537492406</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1387" t="inlineStr">
+        <is>
+          <t>[4.304760183813289e-36, 1.0, 1.8507988110844087e-12]</t>
+        </is>
+      </c>
+      <c r="K1387" t="inlineStr">
+        <is>
+          <t>[1.0, 3.4046189804036453e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1388" t="inlineStr">
+        <is>
+          <t>[ 0  1 -1]</t>
+        </is>
+      </c>
+      <c r="D1388" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1388" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1388" t="inlineStr">
+        <is>
+          <t>[5.116241323208199e-29, 1.0, 2.6013658458237665e-13]</t>
+        </is>
+      </c>
+      <c r="K1388" t="inlineStr">
+        <is>
+          <t>[1.0, 2.263013046269538e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1389" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D1389" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1389" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1389" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1389" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1389" t="inlineStr">
+        <is>
+          <t>[6.44557703506071e-18, 1.0, 7.22817368025569e-13]</t>
+        </is>
+      </c>
+      <c r="K1389" t="inlineStr">
+        <is>
+          <t>[1.0, 1.681401464457069e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1390" t="inlineStr">
+        <is>
+          <t>[ 0 -1 -1]</t>
+        </is>
+      </c>
+      <c r="D1390" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1390" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1390" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1390" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1390" t="inlineStr">
+        <is>
+          <t>[4.4273971155917025e-08, 1.0, 5.990952525736226e-12]</t>
+        </is>
+      </c>
+      <c r="K1390" t="inlineStr">
+        <is>
+          <t>[1.0, 1.4279235346220664e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1391" t="inlineStr">
+        <is>
+          <t>[ 0 -2 -1]</t>
+        </is>
+      </c>
+      <c r="D1391" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1391" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1391" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1391" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1391" t="inlineStr">
+        <is>
+          <t>[0.5912235379219055, 0.40877649188041687, 2.3519594258281096e-11]</t>
+        </is>
+      </c>
+      <c r="K1391" t="inlineStr">
+        <is>
+          <t>[1.0, 1.4147076522405544e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1392" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D1392" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1392" t="n">
+        <v>15.91608409939166</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1392" t="inlineStr">
+        <is>
+          <t>[1.0, 1.8301573170159888e-35, 2.8446358825793787e-43]</t>
+        </is>
+      </c>
+      <c r="K1392" t="inlineStr">
+        <is>
+          <t>[1.0, 2.9559833313735906e-12]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1393" t="inlineStr">
+        <is>
+          <t>[1 2 2]</t>
+        </is>
+      </c>
+      <c r="D1393" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1393" t="n">
+        <v>16.82549471046794</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1393" t="inlineStr">
+        <is>
+          <t>[1.0, 1.1556124155306716e-30, 4.7876782883037874e-34]</t>
+        </is>
+      </c>
+      <c r="K1393" t="inlineStr">
+        <is>
+          <t>[1.0, 2.005638710667057e-12]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1394" t="inlineStr">
+        <is>
+          <t>[0 2 2]</t>
+        </is>
+      </c>
+      <c r="D1394" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1394" t="n">
+        <v>24.39003577307217</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1394" t="inlineStr">
+        <is>
+          <t>[6.508602012900155e-08, 3.465218112452817e-10, 0.9999998807907104]</t>
+        </is>
+      </c>
+      <c r="K1394" t="inlineStr">
+        <is>
+          <t>[1.0, 1.445406619914047e-12]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1395" t="inlineStr">
+        <is>
+          <t>[0 2 1]</t>
+        </is>
+      </c>
+      <c r="D1395" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1395" t="n">
+        <v>24.4896820348891</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1395" t="inlineStr">
+        <is>
+          <t>[4.624314440386488e-19, 5.276474176747585e-14, 1.0]</t>
+        </is>
+      </c>
+      <c r="K1395" t="inlineStr">
+        <is>
+          <t>[1.0, 7.921383275884264e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1396" t="inlineStr">
+        <is>
+          <t>[0 2 0]</t>
+        </is>
+      </c>
+      <c r="D1396" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1396" t="n">
+        <v>21.24408406272255</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1396" t="inlineStr">
+        <is>
+          <t>[4.205080953643596e-32, 8.825904451725819e-10, 1.0]</t>
+        </is>
+      </c>
+      <c r="K1396" t="inlineStr">
+        <is>
+          <t>[1.0, 4.832077121243172e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1397" t="inlineStr">
+        <is>
+          <t>[ 0  2 -1]</t>
+        </is>
+      </c>
+      <c r="D1397" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1397" t="n">
+        <v>23.98568537492406</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1397" t="inlineStr">
+        <is>
+          <t>[4.301575357505122e-36, 1.0, 1.8515263107421465e-12]</t>
+        </is>
+      </c>
+      <c r="K1397" t="inlineStr">
+        <is>
+          <t>[1.0, 3.4046189804036453e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1398" t="inlineStr">
+        <is>
+          <t>[ 0  1 -1]</t>
+        </is>
+      </c>
+      <c r="D1398" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1398" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1398" t="inlineStr">
+        <is>
+          <t>[5.110233625487926e-29, 1.0, 2.6020407616761387e-13]</t>
+        </is>
+      </c>
+      <c r="K1398" t="inlineStr">
+        <is>
+          <t>[1.0, 2.263013046269538e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1399" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D1399" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1399" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1399" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1399" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1399" t="inlineStr">
+        <is>
+          <t>[6.438769752209705e-18, 1.0, 7.229414549642099e-13]</t>
+        </is>
+      </c>
+      <c r="K1399" t="inlineStr">
+        <is>
+          <t>[1.0, 1.681401464457069e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1400" t="inlineStr">
+        <is>
+          <t>[ 0 -1 -1]</t>
+        </is>
+      </c>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1400" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1400" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1400" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1400" t="inlineStr">
+        <is>
+          <t>[4.4235729745878416e-08, 1.0, 5.991580929315399e-12]</t>
+        </is>
+      </c>
+      <c r="K1400" t="inlineStr">
+        <is>
+          <t>[1.0, 1.4279235346220664e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1401" t="inlineStr">
+        <is>
+          <t>[ 0 -2 -1]</t>
+        </is>
+      </c>
+      <c r="D1401" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1401" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1401" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1401" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1401" t="inlineStr">
+        <is>
+          <t>[0.5910679697990417, 0.40893206000328064, 2.3530184745101934e-11]</t>
+        </is>
+      </c>
+      <c r="K1401" t="inlineStr">
+        <is>
+          <t>[1.0, 1.4147076522405544e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1402" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D1402" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1402" t="n">
+        <v>15.91608409939166</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1402" t="inlineStr">
+        <is>
+          <t>[1.0, 1.831400396552265e-35, 2.8446358825793787e-43]</t>
+        </is>
+      </c>
+      <c r="K1402" t="inlineStr">
+        <is>
+          <t>[1.0, 2.9559833313735906e-12]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1403" t="inlineStr">
+        <is>
+          <t>[1 2 2]</t>
+        </is>
+      </c>
+      <c r="D1403" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1403" t="n">
+        <v>16.82549471046794</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1403" t="inlineStr">
+        <is>
+          <t>[1.0, 1.1569003811809806e-30, 4.793087399027493e-34]</t>
+        </is>
+      </c>
+      <c r="K1403" t="inlineStr">
+        <is>
+          <t>[1.0, 2.005638710667057e-12]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1404" t="inlineStr">
+        <is>
+          <t>[0 2 2]</t>
+        </is>
+      </c>
+      <c r="D1404" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1404" t="n">
+        <v>24.39003577307217</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1404" t="inlineStr">
+        <is>
+          <t>[6.493053206213517e-08, 3.464140641007418e-10, 0.9999998807907104]</t>
+        </is>
+      </c>
+      <c r="K1404" t="inlineStr">
+        <is>
+          <t>[1.0, 1.445406619914047e-12]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1405" t="inlineStr">
+        <is>
+          <t>[0 2 1]</t>
+        </is>
+      </c>
+      <c r="D1405" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1405" t="n">
+        <v>24.4896820348891</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1405" t="inlineStr">
+        <is>
+          <t>[4.612457840281306e-19, 5.275467901606247e-14, 1.0]</t>
+        </is>
+      </c>
+      <c r="K1405" t="inlineStr">
+        <is>
+          <t>[1.0, 7.921383275884264e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1406" t="inlineStr">
+        <is>
+          <t>[0 2 0]</t>
+        </is>
+      </c>
+      <c r="D1406" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1406" t="n">
+        <v>21.24408406272255</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1406" t="inlineStr">
+        <is>
+          <t>[4.1964916164221377e-32, 8.824995734180163e-10, 1.0]</t>
+        </is>
+      </c>
+      <c r="K1406" t="inlineStr">
+        <is>
+          <t>[1.0, 4.832077121243172e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1407" t="inlineStr">
+        <is>
+          <t>[ 0  2 -1]</t>
+        </is>
+      </c>
+      <c r="D1407" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1407" t="n">
+        <v>23.98568537492406</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1407" t="inlineStr">
+        <is>
+          <t>[4.2983603976747787e-36, 1.0, 1.8522290905903516e-12]</t>
+        </is>
+      </c>
+      <c r="K1407" t="inlineStr">
+        <is>
+          <t>[1.0, 3.4046189804036453e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1408" t="inlineStr">
+        <is>
+          <t>[ 0  1 -1]</t>
+        </is>
+      </c>
+      <c r="D1408" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1408" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1408" t="inlineStr">
+        <is>
+          <t>[5.104194029552949e-29, 1.0, 2.6026809830589914e-13]</t>
+        </is>
+      </c>
+      <c r="K1408" t="inlineStr">
+        <is>
+          <t>[1.0, 2.263013046269538e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1409" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D1409" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1409" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1409" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1409" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1409" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1409" t="inlineStr">
+        <is>
+          <t>[6.431724241342284e-18, 1.0, 7.230545914609088e-13]</t>
+        </is>
+      </c>
+      <c r="K1409" t="inlineStr">
+        <is>
+          <t>[1.0, 1.681401464457069e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1410" t="inlineStr">
+        <is>
+          <t>[ 0 -1 -1]</t>
+        </is>
+      </c>
+      <c r="D1410" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1410" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1410" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1410" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1410" t="inlineStr">
+        <is>
+          <t>[4.41971046427625e-08, 1.0, 5.992186781489384e-12]</t>
+        </is>
+      </c>
+      <c r="K1410" t="inlineStr">
+        <is>
+          <t>[1.0, 1.4279235346220664e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1411" t="inlineStr">
+        <is>
+          <t>[ 0 -2 -1]</t>
+        </is>
+      </c>
+      <c r="D1411" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1411" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1411" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1411" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1411" t="inlineStr">
+        <is>
+          <t>[0.590909481048584, 0.4090905487537384, 2.3540709312430685e-11]</t>
+        </is>
+      </c>
+      <c r="K1411" t="inlineStr">
+        <is>
+          <t>[1.0, 1.4147076522405544e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1412" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D1412" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1412" t="n">
+        <v>15.91608409939166</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1412" t="inlineStr">
+        <is>
+          <t>[1.0, 1.8327002993017887e-35, 2.858648867222627e-43]</t>
+        </is>
+      </c>
+      <c r="K1412" t="inlineStr">
+        <is>
+          <t>[1.0, 2.9559833313735906e-12]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1413" t="inlineStr">
+        <is>
+          <t>[1 2 2]</t>
+        </is>
+      </c>
+      <c r="D1413" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1413" t="n">
+        <v>16.82549471046794</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1413" t="inlineStr">
+        <is>
+          <t>[1.0, 1.1582074368595469e-30, 4.798502479058449e-34]</t>
+        </is>
+      </c>
+      <c r="K1413" t="inlineStr">
+        <is>
+          <t>[1.0, 2.005638710667057e-12]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1414" t="inlineStr">
+        <is>
+          <t>[0 2 2]</t>
+        </is>
+      </c>
+      <c r="D1414" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1414" t="n">
+        <v>24.39003577307217</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1414" t="inlineStr">
+        <is>
+          <t>[6.477492320300371e-08, 3.46305734089114e-10, 0.9999998807907104]</t>
+        </is>
+      </c>
+      <c r="K1414" t="inlineStr">
+        <is>
+          <t>[1.0, 1.445406619914047e-12]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1415" t="inlineStr">
+        <is>
+          <t>[0 2 1]</t>
+        </is>
+      </c>
+      <c r="D1415" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1415" t="n">
+        <v>24.4896820348891</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1415" t="inlineStr">
+        <is>
+          <t>[4.600631225473329e-19, 5.274471790860276e-14, 1.0]</t>
+        </is>
+      </c>
+      <c r="K1415" t="inlineStr">
+        <is>
+          <t>[1.0, 7.921383275884264e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1416" t="inlineStr">
+        <is>
+          <t>[0 2 0]</t>
+        </is>
+      </c>
+      <c r="D1416" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1416" t="n">
+        <v>21.24408406272255</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1416" t="inlineStr">
+        <is>
+          <t>[4.187920205489529e-32, 8.823985986339267e-10, 1.0]</t>
+        </is>
+      </c>
+      <c r="K1416" t="inlineStr">
+        <is>
+          <t>[1.0, 4.832077121243172e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1417" t="inlineStr">
+        <is>
+          <t>[ 0  2 -1]</t>
+        </is>
+      </c>
+      <c r="D1417" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1417" t="n">
+        <v>23.98568537492406</v>
+      </c>
+      <c r="F1417" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1417" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1417" t="inlineStr">
+        <is>
+          <t>[4.29501665291037e-36, 1.0, 1.8529251483850873e-12]</t>
+        </is>
+      </c>
+      <c r="K1417" t="inlineStr">
+        <is>
+          <t>[1.0, 3.4046189804036453e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1418" t="inlineStr">
+        <is>
+          <t>[ 0  1 -1]</t>
+        </is>
+      </c>
+      <c r="D1418" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1418" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="F1418" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1418" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1418" t="inlineStr">
+        <is>
+          <t>[5.097967257301502e-29, 1.0, 2.603296809892963e-13]</t>
+        </is>
+      </c>
+      <c r="K1418" t="inlineStr">
+        <is>
+          <t>[1.0, 2.263013046269538e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1419" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D1419" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1419" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1419" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1419" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1419" t="inlineStr">
+        <is>
+          <t>[6.4247602077652e-18, 1.0, 7.231800336522654e-13]</t>
+        </is>
+      </c>
+      <c r="K1419" t="inlineStr">
+        <is>
+          <t>[1.0, 1.6813949592440341e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1420" t="inlineStr">
+        <is>
+          <t>[ 0 -1 -1]</t>
+        </is>
+      </c>
+      <c r="D1420" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1420" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1420" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1420" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1420" t="inlineStr">
+        <is>
+          <t>[4.415868204432627e-08, 1.0, 5.9928039093659624e-12]</t>
+        </is>
+      </c>
+      <c r="K1420" t="inlineStr">
+        <is>
+          <t>[1.0, 1.4279235346220664e-13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1421" t="inlineStr">
+        <is>
+          <t>[ 0 -2 -1]</t>
+        </is>
+      </c>
+      <c r="D1421" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1421" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1421" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1421" t="n">
+        <v>25.74904108648377</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J1421" t="inlineStr">
+        <is>
+          <t>[0.590752124786377, 0.40924787521362305, 2.3551143674138686e-11]</t>
+        </is>
+      </c>
+      <c r="K1421" t="inlineStr">
+        <is>
+          <t>[1.0, 1.4147076522405544e-13]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
